--- a/docs/requirements/Master Data Tables - Test Data/master-user_detail_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-user_detail_h.xlsx
@@ -189,7 +189,7 @@
     <t>eff_dtimes</t>
   </si>
   <si>
-    <t>pwd</t>
+    <t>PWD</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>

--- a/docs/requirements/Master Data Tables - Test Data/master-user_detail_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-user_detail_h.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F8E45816-848E-452E-A607-47BEA227D810}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -190,12 +191,66 @@
   </si>
   <si>
     <t>PWD</t>
+  </si>
+  <si>
+    <t>Magdalena Weber</t>
+  </si>
+  <si>
+    <t>magdalena.weber@xyz.com</t>
+  </si>
+  <si>
+    <t>Adrienne Hoffman</t>
+  </si>
+  <si>
+    <t>adrienne.hoffman@xyz.com</t>
+  </si>
+  <si>
+    <t>Adrienne Mcgee</t>
+  </si>
+  <si>
+    <t>adrienne.mcgee@xyz.com</t>
+  </si>
+  <si>
+    <t>Amare Coleman</t>
+  </si>
+  <si>
+    <t>amare.coleman@xyz.com</t>
+  </si>
+  <si>
+    <t>Dawson Ibarra</t>
+  </si>
+  <si>
+    <t>dawson.ibarra@xyz.com</t>
+  </si>
+  <si>
+    <t>Elvis Mcmillan</t>
+  </si>
+  <si>
+    <t>elvis.mcmillan@xyz.com</t>
+  </si>
+  <si>
+    <t>Steve George</t>
+  </si>
+  <si>
+    <t>steve.george@xyz.com</t>
+  </si>
+  <si>
+    <t>Colton Elliott</t>
+  </si>
+  <si>
+    <t>colton.elliott@xyz.com</t>
+  </si>
+  <si>
+    <t>Carolyn Rodriguez</t>
+  </si>
+  <si>
+    <t>carolyn.rodriguez@xyz.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,11 +565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1326,6 +1381,348 @@
         <v>14</v>
       </c>
     </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>110021</v>
+      </c>
+      <c r="B22">
+        <v>7316931025</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22">
+        <v>932122450</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>110022</v>
+      </c>
+      <c r="B23">
+        <v>9137847236</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>848488000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>110023</v>
+      </c>
+      <c r="B24">
+        <v>8428758532</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24">
+        <v>894773246</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>110024</v>
+      </c>
+      <c r="B25">
+        <v>9804209494</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>956554588</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>110025</v>
+      </c>
+      <c r="B26">
+        <v>7105248214</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26">
+        <v>765455583</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>110026</v>
+      </c>
+      <c r="B27">
+        <v>9316557128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27">
+        <v>884282274</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>110027</v>
+      </c>
+      <c r="B28">
+        <v>8103486949</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28">
+        <v>971073663</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>110028</v>
+      </c>
+      <c r="B29">
+        <v>9601932866</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29">
+        <v>809908673</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>110029</v>
+      </c>
+      <c r="B30">
+        <v>9317596765</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <v>818876429</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-user_detail_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-user_detail_h.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F8E45816-848E-452E-A607-47BEA227D810}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{12F15D91-D572-42C8-81EB-8D10F4049B99}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -245,6 +245,18 @@
   </si>
   <si>
     <t>carolyn.rodriguez@xyz.com</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>john.doe@xyz.com</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>jane.smith@xyz.com</t>
   </si>
 </sst>
 </file>
@@ -566,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A30"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1723,6 +1735,82 @@
         <v>14</v>
       </c>
     </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>110030</v>
+      </c>
+      <c r="B31">
+        <v>9317596768</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31">
+        <v>818876432</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>110031</v>
+      </c>
+      <c r="B32">
+        <v>9317596767</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32">
+        <v>818876431</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-user_detail_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-user_detail_h.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{12F15D91-D572-42C8-81EB-8D10F4049B99}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8E370B73-43EE-4D34-86E6-B0F17391BCA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>jane.smith@xyz.com</t>
+  </si>
+  <si>
+    <t>Ewan Marsh</t>
+  </si>
+  <si>
+    <t>ewan.marsh@xyz.com</t>
   </si>
 </sst>
 </file>
@@ -578,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1811,6 +1817,44 @@
         <v>14</v>
       </c>
     </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>110032</v>
+      </c>
+      <c r="B33">
+        <v>9317596770</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33">
+        <v>818876433</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-user_detail_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-user_detail_h.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8E370B73-43EE-4D34-86E6-B0F17391BCA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -190,12 +191,84 @@
   </si>
   <si>
     <t>PWD</t>
+  </si>
+  <si>
+    <t>Magdalena Weber</t>
+  </si>
+  <si>
+    <t>magdalena.weber@xyz.com</t>
+  </si>
+  <si>
+    <t>Adrienne Hoffman</t>
+  </si>
+  <si>
+    <t>adrienne.hoffman@xyz.com</t>
+  </si>
+  <si>
+    <t>Adrienne Mcgee</t>
+  </si>
+  <si>
+    <t>adrienne.mcgee@xyz.com</t>
+  </si>
+  <si>
+    <t>Amare Coleman</t>
+  </si>
+  <si>
+    <t>amare.coleman@xyz.com</t>
+  </si>
+  <si>
+    <t>Dawson Ibarra</t>
+  </si>
+  <si>
+    <t>dawson.ibarra@xyz.com</t>
+  </si>
+  <si>
+    <t>Elvis Mcmillan</t>
+  </si>
+  <si>
+    <t>elvis.mcmillan@xyz.com</t>
+  </si>
+  <si>
+    <t>Steve George</t>
+  </si>
+  <si>
+    <t>steve.george@xyz.com</t>
+  </si>
+  <si>
+    <t>Colton Elliott</t>
+  </si>
+  <si>
+    <t>colton.elliott@xyz.com</t>
+  </si>
+  <si>
+    <t>Carolyn Rodriguez</t>
+  </si>
+  <si>
+    <t>carolyn.rodriguez@xyz.com</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>john.doe@xyz.com</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>jane.smith@xyz.com</t>
+  </si>
+  <si>
+    <t>Ewan Marsh</t>
+  </si>
+  <si>
+    <t>ewan.marsh@xyz.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,11 +583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1326,6 +1399,462 @@
         <v>14</v>
       </c>
     </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>110021</v>
+      </c>
+      <c r="B22">
+        <v>7316931025</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22">
+        <v>932122450</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>110022</v>
+      </c>
+      <c r="B23">
+        <v>9137847236</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>848488000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>110023</v>
+      </c>
+      <c r="B24">
+        <v>8428758532</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24">
+        <v>894773246</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>110024</v>
+      </c>
+      <c r="B25">
+        <v>9804209494</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>956554588</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>110025</v>
+      </c>
+      <c r="B26">
+        <v>7105248214</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26">
+        <v>765455583</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>110026</v>
+      </c>
+      <c r="B27">
+        <v>9316557128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27">
+        <v>884282274</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>110027</v>
+      </c>
+      <c r="B28">
+        <v>8103486949</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28">
+        <v>971073663</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>110028</v>
+      </c>
+      <c r="B29">
+        <v>9601932866</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29">
+        <v>809908673</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>110029</v>
+      </c>
+      <c r="B30">
+        <v>9317596765</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <v>818876429</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>110030</v>
+      </c>
+      <c r="B31">
+        <v>9317596768</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31">
+        <v>818876432</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>110031</v>
+      </c>
+      <c r="B32">
+        <v>9317596767</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32">
+        <v>818876431</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>110032</v>
+      </c>
+      <c r="B33">
+        <v>9317596770</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33">
+        <v>818876433</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-user_detail_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-user_detail_h.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8E370B73-43EE-4D34-86E6-B0F17391BCA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5C9FB0F2-8EED-4017-A3AF-182E62B8A39D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -263,6 +263,24 @@
   </si>
   <si>
     <t>ewan.marsh@xyz.com</t>
+  </si>
+  <si>
+    <t>Nikola Tesla</t>
+  </si>
+  <si>
+    <t>nikola.tesla@xyz.com</t>
+  </si>
+  <si>
+    <t>Graham Bell</t>
+  </si>
+  <si>
+    <t>graham.bell@xyz.com</t>
+  </si>
+  <si>
+    <t>Albert Miles</t>
+  </si>
+  <si>
+    <t>albert.miles@xyz.com</t>
   </si>
 </sst>
 </file>
@@ -584,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M1:XFD1048576"/>
+      <selection activeCell="M1" sqref="M1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1842,7 +1860,7 @@
       <c r="H33" t="s">
         <v>56</v>
       </c>
-      <c r="I33" t="b">
+      <c r="I33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J33" t="s">
@@ -1852,6 +1870,120 @@
         <v>14</v>
       </c>
       <c r="L33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>110033</v>
+      </c>
+      <c r="B34">
+        <v>9317596771</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34">
+        <v>818876434</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>110034</v>
+      </c>
+      <c r="B35">
+        <v>9317596772</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35">
+        <v>818876435</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>110035</v>
+      </c>
+      <c r="B36">
+        <v>9317596773</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36">
+        <v>818876436</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" t="s">
         <v>14</v>
       </c>
     </row>
